--- a/state_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/state_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3182,6 +3182,318 @@
       </c>
       <c r="U35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3546</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.3565</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.40915</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>29.6562244897959</v>
+      </c>
+      <c r="H37" t="n">
+        <v>165</v>
+      </c>
+      <c r="I37" t="n">
+        <v>70</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>55.85</v>
+      </c>
+      <c r="N37" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>111</v>
+      </c>
+      <c r="G38" t="n">
+        <v>104.968</v>
+      </c>
+      <c r="H38" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="N38" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.0338</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.886</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/state_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="50">
   <si>
     <t>site name</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>131</v>
@@ -633,16 +636,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -659,7 +662,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>138.5</v>
@@ -689,16 +692,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -715,7 +718,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>6.75</v>
@@ -730,7 +733,7 @@
         <v>49.7</v>
       </c>
       <c r="L4">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="M4">
         <v>25.58</v>
@@ -745,19 +748,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -774,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>138</v>
@@ -804,16 +807,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -830,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>0.5639999999999999</v>
@@ -860,16 +863,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -886,7 +889,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>9.25</v>
@@ -916,19 +919,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -945,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>135</v>
@@ -975,16 +978,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1001,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>6.8</v>
@@ -1031,16 +1034,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1057,7 +1060,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>0.584</v>
@@ -1087,16 +1090,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1113,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>10.5</v>
@@ -1143,19 +1146,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1172,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>135</v>
@@ -1202,16 +1205,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1228,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>6.8</v>
@@ -1258,16 +1261,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1284,7 +1287,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>0.5639999999999999</v>
@@ -1314,16 +1317,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1340,7 +1343,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -1355,7 +1358,7 @@
         <v>67</v>
       </c>
       <c r="L15">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M15">
         <v>45.62</v>
@@ -1370,19 +1373,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1399,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>128</v>
@@ -1429,16 +1432,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1455,7 +1458,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>6.31</v>
@@ -1485,16 +1488,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1511,7 +1514,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>0.484</v>
@@ -1541,16 +1544,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1567,7 +1570,7 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -1597,16 +1600,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1623,7 +1626,7 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>4.456</v>
@@ -1653,16 +1656,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1679,7 +1682,7 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>0.484</v>
@@ -1709,16 +1712,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1735,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>113</v>
@@ -1765,16 +1768,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1791,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>3.97</v>
@@ -1821,16 +1824,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1847,7 +1850,7 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>0.484</v>
@@ -1877,16 +1880,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1903,7 +1906,7 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>113</v>
@@ -1933,16 +1936,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -1959,7 +1962,7 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>3.97</v>
@@ -1989,16 +1992,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2015,7 +2018,7 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>0.365</v>
@@ -2045,16 +2048,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2071,7 +2074,7 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>111</v>
@@ -2101,16 +2104,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2127,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>3.49</v>
@@ -2157,16 +2160,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2183,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>0.42</v>
@@ -2213,16 +2216,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2239,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>19.75</v>
@@ -2254,7 +2257,7 @@
         <v>70</v>
       </c>
       <c r="L31">
-        <v>31.25</v>
+        <v>21.25</v>
       </c>
       <c r="M31">
         <v>58.5</v>
@@ -2269,19 +2272,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2298,7 +2301,7 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>113</v>
@@ -2328,16 +2331,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2354,7 +2357,7 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>3.49</v>
@@ -2384,16 +2387,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2410,7 +2413,7 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>0.37</v>
@@ -2440,16 +2443,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2466,7 +2469,7 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>18.75</v>
@@ -2481,7 +2484,7 @@
         <v>70</v>
       </c>
       <c r="L35">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="M35">
         <v>55</v>
@@ -2496,19 +2499,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2525,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <v>112</v>
@@ -2555,16 +2558,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2581,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37">
         <v>3.6</v>
@@ -2611,16 +2614,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2637,7 +2640,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38">
         <v>0.37</v>
@@ -2652,7 +2655,7 @@
         <v>0.42</v>
       </c>
       <c r="L38">
-        <v>0.3565</v>
+        <v>0.37</v>
       </c>
       <c r="M38">
         <v>0.40915</v>
@@ -2667,16 +2670,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2693,7 +2696,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39">
         <v>19.5</v>
@@ -2708,7 +2711,7 @@
         <v>70</v>
       </c>
       <c r="L39">
-        <v>21.25</v>
+        <v>16.5</v>
       </c>
       <c r="M39">
         <v>55.85</v>
@@ -2723,19 +2726,19 @@
         <v>5627502.8</v>
       </c>
       <c r="Q39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2752,7 +2755,7 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40">
         <v>111</v>
@@ -2767,7 +2770,7 @@
         <v>114.4</v>
       </c>
       <c r="L40">
-        <v>111.5</v>
+        <v>111</v>
       </c>
       <c r="M40">
         <v>113.56</v>
@@ -2782,16 +2785,16 @@
         <v>5627502.8</v>
       </c>
       <c r="Q40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2808,7 +2811,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -2823,7 +2826,7 @@
         <v>5.18</v>
       </c>
       <c r="L41">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
         <v>4.886</v>
@@ -2838,16 +2841,243 @@
         <v>5627502.8</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T41" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42">
+        <v>0.389</v>
+      </c>
+      <c r="G42">
+        <v>0.3824</v>
+      </c>
+      <c r="H42">
+        <v>0.482</v>
+      </c>
+      <c r="I42">
+        <v>0.482</v>
+      </c>
+      <c r="L42">
+        <v>0.389</v>
+      </c>
+      <c r="M42">
+        <v>0.4603</v>
+      </c>
+      <c r="N42">
+        <v>0.482</v>
+      </c>
+      <c r="O42">
+        <v>1815033.57</v>
+      </c>
+      <c r="P42">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43">
+        <v>16.5</v>
+      </c>
+      <c r="G43">
+        <v>23.9256666666667</v>
+      </c>
+      <c r="H43">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>66.25</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>48.55</v>
+      </c>
+      <c r="N43">
+        <v>64.5</v>
+      </c>
+      <c r="O43">
+        <v>1815033.57</v>
+      </c>
+      <c r="P43">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44">
+        <v>112</v>
+      </c>
+      <c r="G44">
+        <v>106.072</v>
+      </c>
+      <c r="H44">
+        <v>116.52</v>
+      </c>
+      <c r="I44">
+        <v>116.52</v>
+      </c>
+      <c r="L44">
+        <v>112</v>
+      </c>
+      <c r="M44">
+        <v>115.778</v>
+      </c>
+      <c r="N44">
+        <v>116.52</v>
+      </c>
+      <c r="O44">
+        <v>1815033.57</v>
+      </c>
+      <c r="P44">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>4.1026</v>
+      </c>
+      <c r="H45">
+        <v>5.18</v>
+      </c>
+      <c r="I45">
+        <v>5.18</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>5.0064</v>
+      </c>
+      <c r="N45">
+        <v>5.18</v>
+      </c>
+      <c r="O45">
+        <v>1815033.57</v>
+      </c>
+      <c r="P45">
+        <v>5627502.8</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45" t="s">
+        <v>47</v>
+      </c>
+      <c r="T45" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
